--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604855.2483871303</v>
+        <v>662547.591199943</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236428.3313983638</v>
+        <v>335414.3901624709</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279345</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8911793.850395849</v>
+        <v>8295486.934396469</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>93.05214832313177</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>136.7219309038364</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>58.07370746369913</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>41.71495263186118</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.11041309544132</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>16.97940549761111</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H8" t="n">
-        <v>170.2705563803511</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>105.3830043755893</v>
       </c>
     </row>
     <row r="10">
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364034</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>35.18155893056283</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>96.29282742047968</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="U13" t="n">
-        <v>235.5000960026868</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>190.0873170882805</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>120.034310652374</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1663,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>155.8860385675338</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>158.5608617417747</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>372.3397932141368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>41.03250833503017</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>209.1056357433129</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>46.05273119174178</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>139.3733281349269</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>90.35535684952156</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.9284260361568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>184.2894664258928</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>118.1348319079177</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.4943989986722</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>94.6392697836404</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>7.805227041404454</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>230.084235746566</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>117.1560086992563</v>
       </c>
       <c r="V31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>66.83022144364787</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>38.32326053493003</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>152.8096064878777</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>113.7655876792795</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.19029374363589</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>101.562734132761</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>172.0605432780341</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>111.6342358707627</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>33.84234274505293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>27.4470755450446</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>230.4899827373632</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.41850321461121</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>4.020123643055524</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>47.40419526769212</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W46" t="n">
-        <v>189.5968436493439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.9844679696338</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>301.0384945329111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>301.0384945329111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>301.0384945329111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6800813726991</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944839</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945614</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>806.3008579684607</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>578.0822456026084</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>578.0822456026084</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>323.8448888744068</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>229.8528198611423</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618843</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.15289212512</v>
+        <v>325.2583921493374</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.190375184708</v>
+        <v>325.2583921493374</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>325.2583921493374</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>572.2914551403903</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>572.2914551403903</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.15289212512</v>
+        <v>325.2583921493374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>395.3918186652327</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>220.9387893841057</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>220.9387893841057</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>61.70133437865016</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>642.4248816562856</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>395.3918186652327</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>395.3918186652327</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>395.3918186652327</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.27673242182033</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>76.27673242182033</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>76.27673242182033</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>76.27673242182033</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.27673242182033</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1782.111371249201</v>
+        <v>308.2498066576789</v>
       </c>
       <c r="C8" t="n">
-        <v>1413.148854308789</v>
+        <v>308.2498066576789</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.883155702039</v>
+        <v>308.2498066576789</v>
       </c>
       <c r="E8" t="n">
-        <v>1054.883155702039</v>
+        <v>308.2498066576789</v>
       </c>
       <c r="F8" t="n">
-        <v>643.8972509124312</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="G8" t="n">
-        <v>225.9334428106181</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>574.1508510533021</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>574.1508510533021</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>308.2498066576789</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>308.2498066576789</v>
       </c>
       <c r="Y8" t="n">
-        <v>1782.111371249201</v>
+        <v>308.2498066576789</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>30.73231659501241</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>271.335844489875</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>531.9454581020252</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>792.5550717141754</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>589.5956988171297</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1662.48357412947</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C11" t="n">
-        <v>1662.48357412947</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D11" t="n">
-        <v>1304.217875522719</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>918.4296229244749</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>507.4437181348673</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>89.47991003305418</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W11" t="n">
-        <v>1662.48357412947</v>
+        <v>1796.424269041897</v>
       </c>
       <c r="X11" t="n">
-        <v>1662.48357412947</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y11" t="n">
-        <v>1662.48357412947</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5120,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>659.249899616903</v>
       </c>
       <c r="U13" t="n">
-        <v>490.2500993552354</v>
+        <v>659.249899616903</v>
       </c>
       <c r="V13" t="n">
-        <v>490.2500993552354</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1228.366061714959</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="C14" t="n">
-        <v>1228.366061714959</v>
+        <v>533.4554588638564</v>
       </c>
       <c r="D14" t="n">
-        <v>1228.366061714959</v>
+        <v>175.1897602571059</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>175.1897602571059</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>175.1897602571059</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>175.1897602571059</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1618.50539369077</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>1618.50539369077</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y14" t="n">
-        <v>1228.366061714959</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="15">
@@ -5378,10 +5378,10 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073964</v>
@@ -5442,34 +5442,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
         <v>343.360151857325</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.553390680693</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C17" t="n">
-        <v>1363.553390680693</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
         <v>952.5674858910851</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>2092.422847177208</v>
+        <v>2064.590152020523</v>
       </c>
       <c r="W17" t="n">
-        <v>1739.654191907093</v>
+        <v>1711.821496750409</v>
       </c>
       <c r="X17" t="n">
-        <v>1739.654191907093</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="Y17" t="n">
-        <v>1363.553390680693</v>
+        <v>1338.355738489329</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1154.883827626212</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C20" t="n">
-        <v>785.9213106858008</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="D20" t="n">
-        <v>427.6556120790503</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="E20" t="n">
-        <v>427.6556120790503</v>
+        <v>592.3555156664959</v>
       </c>
       <c r="F20" t="n">
-        <v>427.6556120790503</v>
+        <v>592.3555156664959</v>
       </c>
       <c r="G20" t="n">
-        <v>427.6556120790503</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>100.4608921150531</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5755,7 +5755,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224076</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>1881.118241157406</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>1528.349585887292</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>1154.883827626212</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y20" t="n">
-        <v>1154.883827626212</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>373.0594214943678</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>373.0594214943678</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>373.0594214943678</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>373.0594214943678</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>781.1711973675267</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C23" t="n">
-        <v>412.2086804271149</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036445</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>1893.689751284806</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>1520.223993023726</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y23" t="n">
-        <v>1167.771037431648</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6177,16 +6177,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V25" t="n">
-        <v>184.2708856551153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
         <v>53.94298182036445</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1543.155461091169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C26" t="n">
-        <v>1543.155461091169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D26" t="n">
-        <v>1184.889762484419</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E26" t="n">
-        <v>799.1015098861748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6232,46 +6232,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2510.998114830452</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2510.998114830452</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2510.998114830452</v>
       </c>
       <c r="W26" t="n">
-        <v>1543.155461091169</v>
+        <v>2158.229459560338</v>
       </c>
       <c r="X26" t="n">
-        <v>1543.155461091169</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="Y26" t="n">
-        <v>1543.155461091169</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6326,28 +6326,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>658.9427225916138</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>658.9427225916138</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>658.9427225916138</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610023</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V28" t="n">
-        <v>343.3601518573251</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1937.315630222944</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C29" t="n">
-        <v>1568.353113282533</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D29" t="n">
-        <v>1210.087414675782</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2689.265023299632</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2689.265023299632</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2470.630356271695</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2470.630356271695</v>
       </c>
       <c r="V29" t="n">
-        <v>1937.315630222944</v>
+        <v>2470.630356271695</v>
       </c>
       <c r="W29" t="n">
-        <v>1937.315630222944</v>
+        <v>2470.630356271695</v>
       </c>
       <c r="X29" t="n">
-        <v>1937.315630222944</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="Y29" t="n">
-        <v>1937.315630222944</v>
+        <v>1707.025266034803</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>952.5674858910851</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C32" t="n">
-        <v>952.5674858910851</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>952.5674858910851</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>952.5674858910851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2574.615127363213</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2574.615127363213</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2320.853342001304</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2320.853342001304</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="X32" t="n">
-        <v>991.2778500677821</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="Y32" t="n">
-        <v>952.5674858910851</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.1597273639309</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C35" t="n">
-        <v>593.1972104235191</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="D35" t="n">
-        <v>593.1972104235191</v>
+        <v>1037.245832578328</v>
       </c>
       <c r="E35" t="n">
-        <v>207.4089578252748</v>
+        <v>1037.245832578328</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4089578252748</v>
+        <v>626.2599277887207</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>208.2961196869076</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U35" t="n">
-        <v>2406.056868302817</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V35" t="n">
-        <v>2074.993980959247</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W35" t="n">
-        <v>1722.225325689132</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X35" t="n">
-        <v>1348.759567428053</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="Y35" t="n">
-        <v>1348.759567428053</v>
+        <v>1782.1113712492</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.7118141694736</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="C37" t="n">
-        <v>438.7118141694736</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="D37" t="n">
-        <v>438.7118141694736</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>625.540363870312</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694736</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.7118141694736</v>
+        <v>370.8558756644251</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7259,10 +7259,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.0633493392339</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C40" t="n">
-        <v>88.12716641132701</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D40" t="n">
-        <v>88.12716641132701</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694736</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7118141694736</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7118141694736</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.683768698139</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C41" t="n">
-        <v>825.7212517577275</v>
+        <v>798.4928208132003</v>
       </c>
       <c r="D41" t="n">
-        <v>467.455553150977</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="E41" t="n">
-        <v>81.66730055273274</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y41" t="n">
-        <v>1194.683768698139</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7502,31 +7502,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.8558756644252</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C43" t="n">
-        <v>370.8558756644252</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D43" t="n">
         <v>370.8558756644252</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="W43" t="n">
-        <v>438.9553738610022</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="X43" t="n">
-        <v>438.9553738610022</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="Y43" t="n">
-        <v>438.9553738610022</v>
+        <v>689.9086980046678</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1261.831893336434</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C44" t="n">
-        <v>892.8693763960225</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D44" t="n">
-        <v>534.603677789272</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="E44" t="n">
-        <v>534.603677789272</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>58.00371277294579</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.831893336434</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y44" t="n">
-        <v>1261.831893336434</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7842,7 +7842,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
         <v>281.9325327183818</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>263.0480264917442</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.1450665890762</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>139.6188569073249</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368072</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.4951843944459</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865212</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>112.7208368803457</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>47.78481791206877</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>217.9611107168465</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>323.8566626085627</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>103.3542597615227</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>126.505059922771</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>86.81957671340953</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>389.8966402441004</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H8" t="n">
-        <v>153.6522163840061</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>85.99893476574613</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>100.2996914017151</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401877</v>
+        <v>92.30257421685278</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7412138337943</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>252.9481412969333</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>156.8448117144482</v>
       </c>
       <c r="U13" t="n">
-        <v>50.78177823929096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>191.8430529839812</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>203.8884621119831</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>169.1913967283602</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.89814544191682</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469071</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3958356744439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>204.6785342774821</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>105.8785850531195</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24177,19 +24177,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>112.7643151889012</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>279.3757438289475</v>
       </c>
       <c r="Y23" t="n">
-        <v>37.30951261989679</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24417,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>32.15885393176498</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>231.1061368094954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>78.17079298148566</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>46.67317553340725</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>97.66802272356887</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>169.1258655427215</v>
       </c>
       <c r="V31" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>107.5854913653237</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>347.9146781211235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>171.1131662764795</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>137.4585798290098</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.24366890293328</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>184.7191401092168</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.7236267427609</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>139.5899316375266</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>112.5916199015162</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>78.00254480831998</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>379.4289701966669</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>93.43279002699396</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.4134769673261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>248.443790902229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>147.9111926018057</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.3269054107769</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26082,10 +26082,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W46" t="n">
-        <v>96.92615468724713</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502636.0448791047</v>
+        <v>473855.6414396567</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>796086.3337174791</v>
+        <v>476884.1968618534</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>796086.333717479</v>
+        <v>492587.8800625089</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174791</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159463.6497950859</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
+        <v>150588.1755146548</v>
+      </c>
+      <c r="D2" t="n">
+        <v>156006.1355264979</v>
+      </c>
+      <c r="E2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="D2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="E2" t="n">
-        <v>260237.3490141816</v>
-      </c>
       <c r="F2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="H2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="J2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141816</v>
@@ -26346,10 +26346,10 @@
         <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141814</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147456</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113912</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957466</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847434</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42169.81622231289</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.65617556861</v>
+        <v>42033.93659314635</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.65617556861</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
@@ -26444,19 +26444,19 @@
         <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="L4" t="n">
         <v>44802.65617556861</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>44802.6561755686</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="O4" t="n">
         <v>44802.65617556861</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44802.65617556861</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
         <v>44802.65617556861</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51181.37951678014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26493,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71847.83998214465</v>
+        <v>-22745.32143501041</v>
       </c>
       <c r="C6" t="n">
-        <v>-314200.8824853611</v>
+        <v>54269.30616454552</v>
       </c>
       <c r="D6" t="n">
-        <v>126507.2010293843</v>
+        <v>40220.7312824072</v>
       </c>
       <c r="E6" t="n">
-        <v>160134.8010293843</v>
+        <v>-242124.0642829525</v>
       </c>
       <c r="F6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="G6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="H6" t="n">
-        <v>160134.8010293844</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="I6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="J6" t="n">
-        <v>87880.10615824522</v>
+        <v>102536.4308015155</v>
       </c>
       <c r="K6" t="n">
-        <v>57668.68383363773</v>
+        <v>164683.1175981645</v>
       </c>
       <c r="L6" t="n">
-        <v>160134.8010293843</v>
+        <v>160868.8102817742</v>
       </c>
       <c r="M6" t="n">
-        <v>160134.8010293843</v>
+        <v>63162.25570998644</v>
       </c>
       <c r="N6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006215</v>
       </c>
       <c r="O6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006216</v>
       </c>
       <c r="P6" t="n">
-        <v>160134.8010293844</v>
+        <v>165596.3734006217</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26813,7 +26813,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979613</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302971</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>398.1307590522002</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522001</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522002</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>151.298066666745</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>0.6796463695193301</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>9.770660483716219</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35497,19 +35497,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37077,7 +37077,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
         <v>478.8956552492236</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37320,7 +37320,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37627,13 +37627,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
